--- a/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
+++ b/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -62,15 +62,9 @@
     <t>&amp;=[DATA].CURRENTUSER</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].USERHISID</t>
-  </si>
-  <si>
     <t>Bằng chữ:</t>
   </si>
   <si>
-    <t>&amp;=[DATA].TONGTHUCLINH_STRING</t>
-  </si>
-  <si>
     <t>PHÒNG TCKT</t>
   </si>
   <si>
@@ -101,15 +95,9 @@
     <t>Đơn giá</t>
   </si>
   <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
     <t>Tỷ lệ hưởng</t>
   </si>
   <si>
-    <t>Tổng tiền Th7, CN</t>
-  </si>
-  <si>
     <t>Chi phí Th7,CN</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t xml:space="preserve">Thưởng 15% T7,CN </t>
   </si>
   <si>
-    <t>&amp;=[DATA1].</t>
-  </si>
-  <si>
     <t>TRƯỞNG  PHÒNG TÀI CHÍNH</t>
   </si>
   <si>
@@ -177,6 +162,60 @@
   </si>
   <si>
     <t>Tiền hưởng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].QUYETDINH_SO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].QUYETDINH_NGAY</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DONGIA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TYLEHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_TH7CN</t>
+  </si>
+  <si>
+    <t>Thành tiền Th7, CN</t>
+  </si>
+  <si>
+    <t>Thành tiền tổng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHIPHI</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENBSI_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KYNHAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENTHUONG_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TONGHUONG_STRING</t>
   </si>
 </sst>
 </file>
@@ -378,7 +417,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -407,50 +446,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,24 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -484,18 +520,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -791,304 +816,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="7" customWidth="1"/>
-    <col min="12" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
+    <col min="12" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="M5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="O5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>16</v>
+      <c r="P5" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="G7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="H7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="I7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="J7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="K7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="L7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="M7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="N7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="O7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>45</v>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
+    <row r="9" spans="1:16" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="21">
+        <f>SUM(E8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" ref="F9:O9" si="0">SUM(F8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30" t="s">
+      <c r="C13" s="33"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1109,13 +1162,20 @@
       <c r="I15" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="E1:M2"/>
@@ -1126,21 +1186,14 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:P8 E9:J9 A9">
+  <conditionalFormatting sqref="A8:P8 A9 E9:O9">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$K8=1</formula>
     </cfRule>

--- a/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
+++ b/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$17</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PHÒNG TCKT</t>
   </si>
   <si>
-    <t>CHI THƯỞNG DỊCH VỤ VIỆN PHÍ</t>
-  </si>
-  <si>
     <t>Tên khoa phòng</t>
   </si>
   <si>
@@ -86,136 +83,151 @@
     <t>Ngày tháng năm</t>
   </si>
   <si>
+    <t>Thứ 7, CN</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Tỷ lệ hưởng</t>
+  </si>
+  <si>
+    <t>Chi phí Th7,CN</t>
+  </si>
+  <si>
+    <t>BSĩ T7 CN 20K,40K</t>
+  </si>
+  <si>
+    <t>Tổng hưởng</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I = H*E</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M =I * K</t>
+  </si>
+  <si>
+    <t>N =G * H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P=(N-O)*15%</t>
+  </si>
+  <si>
+    <t>Q=G*20~40</t>
+  </si>
+  <si>
+    <t>R=M+P+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thưởng 15% T7,CN </t>
+  </si>
+  <si>
+    <t>TRƯỞNG  PHÒNG TÀI CHÍNH</t>
+  </si>
+  <si>
+    <t>Tổng số tiền chi</t>
+  </si>
+  <si>
+    <t>Tiền hưởng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].QUYETDINH_SO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].QUYETDINH_NGAY</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DONGIA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TYLEHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_TH7CN</t>
+  </si>
+  <si>
+    <t>Thành tiền Th7, CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHIPHI</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENBSI_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KYNHAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIENTHUONG_TH7CN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TONGHUONG_STRING</t>
+  </si>
+  <si>
+    <t>Ngày thường</t>
+  </si>
+  <si>
+    <t>Thành tiền ngày thường</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_NGAYTHUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_NGAYTHUONG</t>
+  </si>
+  <si>
     <t>Tổng</t>
   </si>
   <si>
-    <t>Thứ 7, CN</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Tỷ lệ hưởng</t>
-  </si>
-  <si>
-    <t>Chi phí Th7,CN</t>
-  </si>
-  <si>
-    <t>BSĩ T7 CN 20K,40K</t>
-  </si>
-  <si>
-    <t>Tổng hưởng</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I = H*E</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>M =I * K</t>
-  </si>
-  <si>
-    <t>N =G * H</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P=(N-O)*15%</t>
-  </si>
-  <si>
-    <t>Q=G*20~40</t>
-  </si>
-  <si>
-    <t>R=M+P+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thưởng 15% T7,CN </t>
-  </si>
-  <si>
-    <t>TRƯỞNG  PHÒNG TÀI CHÍNH</t>
-  </si>
-  <si>
-    <t>Tổng số tiền chi</t>
-  </si>
-  <si>
-    <t>Tiền hưởng</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].QUYETDINH_SO</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].QUYETDINH_NGAY</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].SOLUONG_TH7CN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DONGIA</t>
+    <t>&amp;=[DATA1].SOLUONG_TONG</t>
+  </si>
+  <si>
+    <t>Thành tiền tổng</t>
   </si>
   <si>
     <t>&amp;=[DATA1].THANHTIEN_TONG</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].TYLEHUONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TIENHUONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].THANHTIEN_TH7CN</t>
-  </si>
-  <si>
-    <t>Thành tiền Th7, CN</t>
-  </si>
-  <si>
-    <t>Thành tiền tổng</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CHIPHI</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TIENBSI_TH7CN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TONGHUONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].KYNHAN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TIENTHUONG_TH7CN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].SOLUONG_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA].TONGHUONG_STRING</t>
+    <t>CHI THƯỞNG DỊCH VỤ KHÁM YÊU CẦU VIỆN PHÍ</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -472,46 +484,52 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,7 +538,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -814,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,269 +866,288 @@
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
-    <col min="12" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="7" width="9.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="7" customWidth="1"/>
+    <col min="14" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="F1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="F3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="E3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="15"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="H8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="I8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="K8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="L8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="O8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>58</v>
+      <c r="Q8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="21">
         <f>SUM(E8:E8)</f>
         <v>0</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" ref="F9:O9" si="0">SUM(F8:F8)</f>
+        <f>SUM(F8:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
-        <f t="shared" si="0"/>
+      <c r="G9" s="21">
+        <f t="shared" ref="G9:Q9" si="0">SUM(G8:G8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <f t="shared" ref="I9" si="1">SUM(I8:I8)</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1105,102 +1164,126 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="29"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F1:O2"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E1:M2"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:P8 A9 E9:O9">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K8=1</formula>
+  <conditionalFormatting sqref="A9 A8:D8 F8:H9 J8:R8 J9:Q9">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$M8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$M8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$M8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
+++ b/MedicalLink/Templates/BC_103_ChiThuongDichVuVienPhi.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$17</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,7 +238,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,26 +293,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val=".VnTimeH"/>
       <family val="2"/>
     </font>
@@ -429,7 +417,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -458,17 +446,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -484,54 +461,62 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -856,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="S5" sqref="A5:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,189 +864,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="F1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="15"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1076,103 +1061,103 @@
       <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="18" t="s">
         <v>53</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="21">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="14">
         <f>SUM(E8:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="14">
         <f>SUM(F8:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="14">
         <f t="shared" ref="G9:Q9" si="0">SUM(G8:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
         <f t="shared" ref="I9" si="1">SUM(I8:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -1181,35 +1166,35 @@
       <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19" t="s">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1234,13 +1219,24 @@
       <c r="K15" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F1:O2"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -1254,17 +1250,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F1:O2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A9 A8:D8 F8:H9 J8:R8 J9:Q9">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
